--- a/src/main/resources/static/operationPlan.xlsx
+++ b/src/main/resources/static/operationPlan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\codeitem\RuoYi-Vue-travel-agency\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{219FF623-735F-4D24-8CB0-F9E3FC3B057E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33D9689-45A9-482E-9F61-6DC230F7CD5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6396" yWindow="2532" windowWidth="28512" windowHeight="14208" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2208" yWindow="3072" windowWidth="28512" windowHeight="14208" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -464,8 +464,79 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -490,19 +561,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -514,25 +573,19 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -540,75 +593,15 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -890,10 +883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -904,271 +897,268 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="2"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="22"/>
     </row>
     <row r="2" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="3" t="s">
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="5" t="s">
+      <c r="H2" s="23"/>
+      <c r="I2" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="6" t="s">
+      <c r="J2" s="25"/>
+      <c r="K2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="7" t="s">
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="N3" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="15" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="L4" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="M4" s="15" t="s">
+      <c r="M4" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="N4" s="15"/>
+      <c r="N4" s="6"/>
     </row>
     <row r="5" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="39" t="s">
+      <c r="F5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="39" t="s">
+      <c r="G5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="39" t="s">
+      <c r="H5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="39" t="s">
+      <c r="I5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="39" t="s">
+      <c r="J5" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="39" t="s">
+      <c r="K5" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="L5" s="39" t="s">
+      <c r="L5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="M5" s="39" t="s">
+      <c r="M5" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="N5" s="39" t="s">
+      <c r="N5" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
-      <c r="B6" s="20" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
     </row>
     <row r="7" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="13" t="s">
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="21"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="17"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="8"/>
     </row>
     <row r="8" spans="1:14" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="25" t="s">
+      <c r="C8" s="18"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="26" t="s">
+      <c r="I8" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="J8" s="27"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="16" t="s">
+      <c r="J8" s="33"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
-      <c r="B9" s="30" t="s">
+      <c r="A9" s="36"/>
+      <c r="B9" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32" t="s">
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="I9" s="32" t="s">
+      <c r="I9" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="J9" s="27"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="16"/>
-    </row>
-    <row r="19" spans="10:10" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="J19" s="39"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -1176,8 +1166,8 @@
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="J7:M9"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B9:D9"/>
     <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A2:B2"/>
